--- a/Cuadros/q14_budget.xlsx
+++ b/Cuadros/q14_budget.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC48B560-F4E3-4D30-883B-4115063D5D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144FE22F-4D7E-4ECE-8471-28365A9C65DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q14" sheetId="1" r:id="rId1"/>
-    <sheet name="q14_q5" sheetId="2" r:id="rId2"/>
-    <sheet name="q14_q6" sheetId="3" r:id="rId3"/>
-    <sheet name="q14_q9" sheetId="4" r:id="rId4"/>
-    <sheet name="q14_q10" sheetId="5" r:id="rId5"/>
+    <sheet name="q14_q4agrup" sheetId="6" r:id="rId2"/>
+    <sheet name="q14_q5" sheetId="2" r:id="rId3"/>
+    <sheet name="q14_q6" sheetId="3" r:id="rId4"/>
+    <sheet name="q14_q9" sheetId="4" r:id="rId5"/>
+    <sheet name="q14_q10" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">q14_q10!$A$27:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">q14_q10!$A$27:$G$36</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
   <si>
     <t>Percentage of External Funding in Total Annual Budget</t>
   </si>
@@ -159,6 +160,36 @@
   </si>
   <si>
     <t>q10_budget_grp_2023</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>q4_awid_focus</t>
+  </si>
+  <si>
+    <t>0 Zero</t>
+  </si>
+  <si>
+    <t>1 Lower than 30%</t>
+  </si>
+  <si>
+    <t>2 Between 30% and 40%</t>
+  </si>
+  <si>
+    <t>3 Between 50% and 60%</t>
+  </si>
+  <si>
+    <t>4 Between 70% and 80%</t>
+  </si>
+  <si>
+    <t>5 Higher than 80%</t>
+  </si>
+  <si>
+    <t>Other subjects</t>
+  </si>
+  <si>
+    <t>Specific AWID subjects</t>
   </si>
 </sst>
 </file>
@@ -603,6 +634,202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>88</v>
+      </c>
+      <c r="H3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>111</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>124</v>
+      </c>
+      <c r="H7">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -954,7 +1181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -1462,7 +1689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -1892,11 +2119,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/Cuadros/q14_budget.xlsx
+++ b/Cuadros/q14_budget.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144FE22F-4D7E-4ECE-8471-28365A9C65DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B193DEDB-4216-4A75-96F0-6C8AA81AB5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q14" sheetId="1" r:id="rId1"/>
-    <sheet name="q14_q4agrup" sheetId="6" r:id="rId2"/>
-    <sheet name="q14_q5" sheetId="2" r:id="rId3"/>
-    <sheet name="q14_q6" sheetId="3" r:id="rId4"/>
-    <sheet name="q14_q9" sheetId="4" r:id="rId5"/>
-    <sheet name="q14_q10" sheetId="5" r:id="rId6"/>
+    <sheet name="q14_q4" sheetId="7" r:id="rId2"/>
+    <sheet name="q14_q4agrup" sheetId="6" r:id="rId3"/>
+    <sheet name="q14_q5" sheetId="2" r:id="rId4"/>
+    <sheet name="q14_q6" sheetId="3" r:id="rId5"/>
+    <sheet name="q14_q9" sheetId="4" r:id="rId6"/>
+    <sheet name="q14_q10" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">q14_q10!$A$27:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">q14_q4!$A$21:$K$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
   <si>
     <t>Percentage of External Funding in Total Annual Budget</t>
   </si>
@@ -190,6 +191,66 @@
   </si>
   <si>
     <t>Specific AWID subjects</t>
+  </si>
+  <si>
+    <t>Table for 2021</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LGTBIQ</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Sex_workers</t>
+  </si>
+  <si>
+    <t>Anti_caste</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Countering_anti</t>
+  </si>
+  <si>
+    <t>Harm_reduction</t>
+  </si>
+  <si>
+    <t>Disability_rights</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>0 Zero</t>
+  </si>
+  <si>
+    <t>1 Lower than 30%</t>
+  </si>
+  <si>
+    <t>2 Between 30% and 40%</t>
+  </si>
+  <si>
+    <t>3 Between 50% and 60%</t>
+  </si>
+  <si>
+    <t>4 Between 70% and 80%</t>
+  </si>
+  <si>
+    <t>5 Higher than 80%</t>
+  </si>
+  <si>
+    <t>Table for 2022</t>
+  </si>
+  <si>
+    <t>Table for 2023</t>
   </si>
 </sst>
 </file>
@@ -634,196 +695,765 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>126</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>117</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+      <c r="K7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>330</v>
+      </c>
+      <c r="C8">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>139</v>
+      </c>
+      <c r="E8">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>86</v>
+      </c>
+      <c r="H8">
+        <v>95</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>58</v>
+      </c>
+      <c r="K8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H13">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>36</v>
+      </c>
+      <c r="K13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>23</v>
+      </c>
+      <c r="K15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>153</v>
+      </c>
+      <c r="C16">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>62</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>58</v>
+      </c>
+      <c r="H16">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17">
+        <v>361</v>
+      </c>
+      <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>155</v>
+      </c>
+      <c r="E17">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>104</v>
+      </c>
+      <c r="I17">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>26</v>
+      </c>
+      <c r="K23">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>41</v>
+      </c>
+      <c r="H24">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>28</v>
+      </c>
+      <c r="K24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>95</v>
+      </c>
+      <c r="C25">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2021</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>29</v>
-      </c>
-      <c r="H2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>96</v>
-      </c>
-      <c r="E3">
-        <v>66</v>
-      </c>
-      <c r="F3">
-        <v>57</v>
-      </c>
-      <c r="G3">
-        <v>88</v>
-      </c>
-      <c r="H3">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+      <c r="K25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>171</v>
+      </c>
+      <c r="C26">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>76</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>63</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
         <v>36</v>
       </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>42</v>
-      </c>
-      <c r="H4">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <v>68</v>
-      </c>
-      <c r="F5">
+      <c r="K26">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>396</v>
+      </c>
+      <c r="C27">
+        <v>128</v>
+      </c>
+      <c r="D27">
+        <v>169</v>
+      </c>
+      <c r="E27">
         <v>70</v>
       </c>
-      <c r="G5">
-        <v>111</v>
-      </c>
-      <c r="H5">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <v>116</v>
+      </c>
+      <c r="I27">
+        <v>28</v>
+      </c>
+      <c r="J27">
+        <v>65</v>
+      </c>
+      <c r="K27">
         <v>2023</v>
       </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>47</v>
-      </c>
-      <c r="H6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2023</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>69</v>
-      </c>
-      <c r="E7">
-        <v>79</v>
-      </c>
-      <c r="F7">
-        <v>82</v>
-      </c>
-      <c r="G7">
-        <v>124</v>
-      </c>
-      <c r="H7">
-        <v>271</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A21:K27" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -831,6 +1461,202 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>88</v>
+      </c>
+      <c r="H3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>42</v>
+      </c>
+      <c r="H4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>111</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>79</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>124</v>
+      </c>
+      <c r="H7">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1181,8 +2007,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1689,8 +2515,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2119,8 +2945,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Cuadros/q14_budget.xlsx
+++ b/Cuadros/q14_budget.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B193DEDB-4216-4A75-96F0-6C8AA81AB5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C470581-86A4-4854-A233-BB6A4C7491CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q14" sheetId="1" r:id="rId1"/>
-    <sheet name="q14_q4" sheetId="7" r:id="rId2"/>
-    <sheet name="q14_q4agrup" sheetId="6" r:id="rId3"/>
+    <sheet name="q14_q4agrup" sheetId="6" r:id="rId2"/>
+    <sheet name="q14_q4" sheetId="7" r:id="rId3"/>
     <sheet name="q14_q5" sheetId="2" r:id="rId4"/>
     <sheet name="q14_q6" sheetId="3" r:id="rId5"/>
     <sheet name="q14_q9" sheetId="4" r:id="rId6"/>
     <sheet name="q14_q10" sheetId="5" r:id="rId7"/>
+    <sheet name="q14_region" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">q14_q4!$A$21:$K$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">q14_region!$A$21:$I$27</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="91">
   <si>
     <t>Percentage of External Funding in Total Annual Budget</t>
   </si>
@@ -226,7 +227,58 @@
     <t>Disability_rights</t>
   </si>
   <si>
-    <t>Year</t>
+    <t>0 Zero</t>
+  </si>
+  <si>
+    <t>1 Lower than 30%</t>
+  </si>
+  <si>
+    <t>2 Between 30% and 40%</t>
+  </si>
+  <si>
+    <t>3 Between 50% and 60%</t>
+  </si>
+  <si>
+    <t>4 Between 70% and 80%</t>
+  </si>
+  <si>
+    <t>5 Higher than 80%</t>
+  </si>
+  <si>
+    <t>Table for 2022</t>
+  </si>
+  <si>
+    <t>Table for 2023</t>
+  </si>
+  <si>
+    <t>Table for 2021</t>
+  </si>
+  <si>
+    <t>q14</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1. Latin America &amp; the Caribbean</t>
+  </si>
+  <si>
+    <t>2. Western Europe &amp; North America</t>
+  </si>
+  <si>
+    <t>3. Eastern, Southeast and Central Europe</t>
+  </si>
+  <si>
+    <t>4. Africa</t>
+  </si>
+  <si>
+    <t>5. Asia &amp; the Pacific</t>
+  </si>
+  <si>
+    <t>6. Central Asia &amp; Caucasus</t>
+  </si>
+  <si>
+    <t>7. South West Asia/Middle East &amp; North Africa</t>
   </si>
   <si>
     <t>0 Zero</t>
@@ -695,765 +747,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2021</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3">
-        <v>93</v>
-      </c>
-      <c r="C3">
-        <v>33</v>
-      </c>
-      <c r="D3">
+      <c r="G3">
+        <v>88</v>
+      </c>
+      <c r="H3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
         <v>42</v>
       </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>25</v>
-      </c>
-      <c r="K3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4">
-        <v>126</v>
-      </c>
-      <c r="C4">
+      <c r="H4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
         <v>45</v>
       </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
+      <c r="D5">
+        <v>86</v>
+      </c>
+      <c r="E5">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>111</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>47</v>
       </c>
-      <c r="H4">
-        <v>34</v>
-      </c>
-      <c r="I4">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>29</v>
-      </c>
-      <c r="K4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="H6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7">
         <v>69</v>
       </c>
-      <c r="B6">
-        <v>87</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>35</v>
-      </c>
-      <c r="E6">
-        <v>9</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>18</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="K6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7">
-        <v>117</v>
-      </c>
-      <c r="C7">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>55</v>
-      </c>
       <c r="E7">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="H7">
-        <v>29</v>
-      </c>
-      <c r="I7">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>330</v>
-      </c>
-      <c r="C8">
-        <v>107</v>
-      </c>
-      <c r="D8">
-        <v>139</v>
-      </c>
-      <c r="E8">
-        <v>62</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>86</v>
-      </c>
-      <c r="H8">
-        <v>95</v>
-      </c>
-      <c r="I8">
-        <v>26</v>
-      </c>
-      <c r="J8">
-        <v>58</v>
-      </c>
-      <c r="K8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12">
-        <v>59</v>
-      </c>
-      <c r="C12">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>15</v>
-      </c>
-      <c r="H12">
-        <v>19</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>14</v>
-      </c>
-      <c r="K12">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13">
-        <v>122</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>24</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>44</v>
-      </c>
-      <c r="H13">
-        <v>29</v>
-      </c>
-      <c r="I13">
-        <v>16</v>
-      </c>
-      <c r="J13">
-        <v>36</v>
-      </c>
-      <c r="K13">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14">
-        <v>90</v>
-      </c>
-      <c r="C14">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <v>21</v>
-      </c>
-      <c r="I14">
-        <v>14</v>
-      </c>
-      <c r="J14">
-        <v>23</v>
-      </c>
-      <c r="K14">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15">
-        <v>90</v>
-      </c>
-      <c r="C15">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>43</v>
-      </c>
-      <c r="E15">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>40</v>
-      </c>
-      <c r="H15">
-        <v>18</v>
-      </c>
-      <c r="I15">
-        <v>12</v>
-      </c>
-      <c r="J15">
-        <v>23</v>
-      </c>
-      <c r="K15">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16">
-        <v>153</v>
-      </c>
-      <c r="C16">
-        <v>51</v>
-      </c>
-      <c r="D16">
-        <v>62</v>
-      </c>
-      <c r="E16">
-        <v>26</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>58</v>
-      </c>
-      <c r="H16">
-        <v>33</v>
-      </c>
-      <c r="I16">
-        <v>17</v>
-      </c>
-      <c r="J16">
-        <v>31</v>
-      </c>
-      <c r="K16">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17">
-        <v>361</v>
-      </c>
-      <c r="C17">
-        <v>114</v>
-      </c>
-      <c r="D17">
-        <v>155</v>
-      </c>
-      <c r="E17">
-        <v>67</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>89</v>
-      </c>
-      <c r="H17">
-        <v>104</v>
-      </c>
-      <c r="I17">
-        <v>28</v>
-      </c>
-      <c r="J17">
-        <v>63</v>
-      </c>
-      <c r="K17">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>6</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23">
-        <v>101</v>
-      </c>
-      <c r="C23">
-        <v>39</v>
-      </c>
-      <c r="D23">
-        <v>43</v>
-      </c>
-      <c r="E23">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>31</v>
-      </c>
-      <c r="H23">
-        <v>23</v>
-      </c>
-      <c r="I23">
-        <v>11</v>
-      </c>
-      <c r="J23">
-        <v>26</v>
-      </c>
-      <c r="K23">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24">
-        <v>100</v>
-      </c>
-      <c r="C24">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>41</v>
-      </c>
-      <c r="E24">
-        <v>21</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>41</v>
-      </c>
-      <c r="H24">
-        <v>26</v>
-      </c>
-      <c r="I24">
-        <v>13</v>
-      </c>
-      <c r="J24">
-        <v>28</v>
-      </c>
-      <c r="K24">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25">
-        <v>95</v>
-      </c>
-      <c r="C25">
-        <v>45</v>
-      </c>
-      <c r="D25">
-        <v>42</v>
-      </c>
-      <c r="E25">
-        <v>23</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>39</v>
-      </c>
-      <c r="H25">
-        <v>25</v>
-      </c>
-      <c r="I25">
-        <v>18</v>
-      </c>
-      <c r="J25">
-        <v>32</v>
-      </c>
-      <c r="K25">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26">
-        <v>171</v>
-      </c>
-      <c r="C26">
-        <v>62</v>
-      </c>
-      <c r="D26">
-        <v>76</v>
-      </c>
-      <c r="E26">
-        <v>40</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>63</v>
-      </c>
-      <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>20</v>
-      </c>
-      <c r="J26">
-        <v>36</v>
-      </c>
-      <c r="K26">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27">
-        <v>396</v>
-      </c>
-      <c r="C27">
-        <v>128</v>
-      </c>
-      <c r="D27">
-        <v>169</v>
-      </c>
-      <c r="E27">
-        <v>70</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <v>99</v>
-      </c>
-      <c r="H27">
-        <v>116</v>
-      </c>
-      <c r="I27">
-        <v>28</v>
-      </c>
-      <c r="J27">
-        <v>65</v>
-      </c>
-      <c r="K27">
-        <v>2023</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A21:K27" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1461,202 +944,710 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>126</v>
+      </c>
+      <c r="C4">
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>47</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>117</v>
+      </c>
+      <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>330</v>
+      </c>
+      <c r="C8">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>139</v>
+      </c>
+      <c r="E8">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>86</v>
+      </c>
+      <c r="H8">
+        <v>95</v>
+      </c>
+      <c r="I8">
+        <v>26</v>
+      </c>
+      <c r="J8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H13">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <v>21</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>43</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>153</v>
+      </c>
+      <c r="C16">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>62</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>58</v>
+      </c>
+      <c r="H16">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17">
+        <v>361</v>
+      </c>
+      <c r="C17">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>155</v>
+      </c>
+      <c r="E17">
+        <v>67</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>104</v>
+      </c>
+      <c r="I17">
+        <v>28</v>
+      </c>
+      <c r="J17">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>31</v>
+      </c>
+      <c r="H23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>41</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>41</v>
+      </c>
+      <c r="H24">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <v>95</v>
+      </c>
+      <c r="C25">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2021</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>29</v>
-      </c>
-      <c r="H2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>96</v>
-      </c>
-      <c r="E3">
-        <v>66</v>
-      </c>
-      <c r="F3">
-        <v>57</v>
-      </c>
-      <c r="G3">
-        <v>88</v>
-      </c>
-      <c r="H3">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
+      <c r="D25">
+        <v>42</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>171</v>
+      </c>
+      <c r="C26">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>76</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>63</v>
+      </c>
+      <c r="H26">
+        <v>33</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
         <v>36</v>
       </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>42</v>
-      </c>
-      <c r="H4">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>86</v>
-      </c>
-      <c r="E5">
-        <v>68</v>
-      </c>
-      <c r="F5">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>70</v>
       </c>
-      <c r="G5">
-        <v>111</v>
-      </c>
-      <c r="H5">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2023</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>47</v>
-      </c>
-      <c r="H6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2023</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>69</v>
-      </c>
-      <c r="E7">
-        <v>79</v>
-      </c>
-      <c r="F7">
-        <v>82</v>
-      </c>
-      <c r="G7">
-        <v>124</v>
-      </c>
-      <c r="H7">
-        <v>271</v>
+      <c r="B27">
+        <v>396</v>
+      </c>
+      <c r="C27">
+        <v>128</v>
+      </c>
+      <c r="D27">
+        <v>169</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <v>116</v>
+      </c>
+      <c r="I27">
+        <v>28</v>
+      </c>
+      <c r="J27">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A21:J27" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2008,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2516,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2946,7 +2937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3663,4 +3654,645 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>93</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>126</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>117</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>330</v>
+      </c>
+      <c r="C8">
+        <v>119</v>
+      </c>
+      <c r="D8">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>99</v>
+      </c>
+      <c r="G8">
+        <v>85</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>122</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>46</v>
+      </c>
+      <c r="G13">
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>90</v>
+      </c>
+      <c r="C14">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>37</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <v>153</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>35</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <v>361</v>
+      </c>
+      <c r="C17">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>112</v>
+      </c>
+      <c r="G17">
+        <v>92</v>
+      </c>
+      <c r="H17">
+        <v>21</v>
+      </c>
+      <c r="I17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25">
+        <v>95</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>32</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>171</v>
+      </c>
+      <c r="C26">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>64</v>
+      </c>
+      <c r="G26">
+        <v>36</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>396</v>
+      </c>
+      <c r="C27">
+        <v>146</v>
+      </c>
+      <c r="D27">
+        <v>48</v>
+      </c>
+      <c r="E27">
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <v>116</v>
+      </c>
+      <c r="G27">
+        <v>104</v>
+      </c>
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A21:I27" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>